--- a/biology/Zoologie/Coeliadinae/Coeliadinae.xlsx
+++ b/biology/Zoologie/Coeliadinae/Coeliadinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La sous-famille des Coeliadinae regroupe des lépidoptères (papillons) de la famille des Hesperiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de Coeliadinae a été proposé par William Harry Evans en 1937[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de Coeliadinae a été proposé par William Harry Evans en 1937.
 En anglais ce sont les Policemen.
 </t>
         </is>
@@ -543,14 +557,16 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Allora Waterhouse et Lyell, 1914; en Océanie.
-Bibasis Moore, [1881]; en Australasie.
-Badamia Moore, [1881]; en Australasie.
-Choaspes Moore, [1881]; en Australasie.
+Bibasis Moore, ; en Australasie.
+Badamia Moore, ; en Australasie.
+Choaspes Moore, ; en Australasie.
 Coeliades Hübner, 1818; en Afrique et à Madagascar.
-Hasora Moore, [1881]; en Australasie.
+Hasora Moore, ; en Australasie.
 Pyrrhiades Lindsey &amp; Miller, 1965; en Afrique au Ghana.</t>
         </is>
       </c>
